--- a/Excel_Exercice01_MiseEnFormeEtGraphique_Charles-Edward_Gibeau.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique_Charles-Edward_Gibeau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\cvm\court\soutien\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\cvm\court\soutien\remise-de-devoir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2186FC9-DC4D-49B0-A5EA-85F73C92B23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B10AA0F-7F63-492B-946A-3048CEF2FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B0EEB6E9-258A-4F43-A51A-2CA2E841E5F9}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{14A0A342-E161-493D-989D-C170CFD172CB}"/>
@@ -3044,9 +3044,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1374784837941769"/>
-          <c:y val="0.12541666666666668"/>
-          <c:w val="0.73589961138578608"/>
+          <c:x val="0.12492743160924918"/>
+          <c:y val="0.14756357488541894"/>
+          <c:w val="0.66099379485484056"/>
           <c:h val="0.74597726707336132"/>
         </c:manualLayout>
       </c:layout>
@@ -3403,7 +3403,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="50000"/>
@@ -3414,11 +3414,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3559,6 +3559,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84241081980224253"/>
+          <c:y val="0.17340550531909643"/>
+          <c:w val="0.14191616026040485"/>
+          <c:h val="0.31836204780644789"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3576,9 +3617,9 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent1">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -3761,7 +3802,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14368948481011243"/>
           <c:y val="0.17210829893128596"/>
-          <c:w val="0.85631051518988754"/>
+          <c:w val="0.62021046173805472"/>
           <c:h val="0.7421519556488112"/>
         </c:manualLayout>
       </c:layout>
@@ -4183,6 +4224,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.808386434003595"/>
+          <c:y val="0.12184905458246288"/>
+          <c:w val="0.1343700321978"/>
+          <c:h val="0.33457483242104036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5969,15 +6051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>36208</xdr:rowOff>
+      <xdr:colOff>7793</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>715481</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>60614</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6004,16 +6086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>77933</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6041,15 +6123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6844,7 +6926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6907,7 +6989,7 @@
     <row r="7" spans="2:18" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="55"/>
     </row>
-    <row r="8" spans="2:18" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="71" t="s">
         <v>2</v>
       </c>
@@ -6927,7 +7009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
         <v>8</v>
       </c>
@@ -6947,7 +7029,7 @@
         <v>18105.46</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
@@ -6967,7 +7049,7 @@
         <v>27164.67</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
         <v>10</v>
       </c>
@@ -6987,7 +7069,7 @@
         <v>40624.120000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
@@ -7007,7 +7089,7 @@
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="58" t="s">
         <v>12</v>
       </c>
@@ -7027,7 +7109,7 @@
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75" t="s">
         <v>7</v>
       </c>
@@ -7051,7 +7133,7 @@
     <row r="16" spans="2:18" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="70"/>
     </row>
-    <row r="17" spans="2:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="76" t="s">
         <v>13</v>
       </c>
@@ -7071,7 +7153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="67" t="s">
         <v>14</v>
       </c>
@@ -7091,7 +7173,7 @@
         <v>50600.09</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="67" t="s">
         <v>15</v>
       </c>
@@ -7111,7 +7193,7 @@
         <v>28167.059999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
@@ -7131,7 +7213,7 @@
         <v>24795.49</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79" t="s">
         <v>7</v>
       </c>
@@ -7151,11 +7233,11 @@
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="88"/>
     </row>
-    <row r="24" spans="2:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="97" t="s">
         <v>17</v>
       </c>
@@ -7175,7 +7257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="93" t="s">
         <v>7</v>
       </c>
@@ -7309,6 +7391,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb47f970db01455029df431765be63e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36af26dbc36b6288b7ddae45b32d7e9e" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -7479,36 +7576,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF5AED0-9EFA-4824-BC63-124563E12A31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F10B16-3BA5-4DBB-9D9C-E801AA84B972}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
-    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7531,9 +7602,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F10B16-3BA5-4DBB-9D9C-E801AA84B972}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF5AED0-9EFA-4824-BC63-124563E12A31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel_Exercice01_MiseEnFormeEtGraphique_Charles-Edward_Gibeau.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique_Charles-Edward_Gibeau.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\cvm\court\soutien\remise-de-devoir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B10AA0F-7F63-492B-946A-3048CEF2FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0B568F-AD98-4687-8BFB-751EC79709C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B0EEB6E9-258A-4F43-A51A-2CA2E841E5F9}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{14A0A342-E161-493D-989D-C170CFD172CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0EEB6E9-258A-4F43-A51A-2CA2E841E5F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{14A0A342-E161-493D-989D-C170CFD172CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
@@ -2741,6 +2741,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2794,7 +2808,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3414,7 +3428,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6925,7 +6939,7 @@
   <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="1">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -7400,12 +7414,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb47f970db01455029df431765be63e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36af26dbc36b6288b7ddae45b32d7e9e" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -7576,6 +7584,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F10B16-3BA5-4DBB-9D9C-E801AA84B972}">
   <ds:schemaRefs>
@@ -7585,23 +7599,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E9EC6D-36DB-4E19-8CE7-24B6CEB78323}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF5AED0-9EFA-4824-BC63-124563E12A31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7618,4 +7615,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E9EC6D-36DB-4E19-8CE7-24B6CEB78323}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>